--- a/data/trans_orig/IP18A06-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP18A06-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F71F51BC-6572-4C2F-B74A-F038B1476DB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E1361C4-4B88-4484-B97A-7FEF453F8413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A3A6037E-CA0E-420E-B3F7-850BDFCFB6BA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D587323E-8B22-428F-921A-1A53BF77E20B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="246">
   <si>
     <t>Menores según su última visita al médico fue por otro motivo en 2007 (Tasa respuesta: 86,83%)</t>
   </si>
@@ -107,730 +107,676 @@
     <t>0,85%</t>
   </si>
   <si>
-    <t>4,63%</t>
+    <t>4,88%</t>
   </si>
   <si>
     <t>0,41%</t>
   </si>
   <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por otro motivo en 2012 (Tasa respuesta: 91,19%)</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por otro motivo en 2016 (Tasa respuesta: 88,24%)</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
     <t>2,07%</t>
   </si>
   <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
   </si>
   <si>
     <t>97,93%</t>
   </si>
   <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por otro motivo en 2012 (Tasa respuesta: 91,19%)</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por otro motivo en 2015 (Tasa respuesta: 88,24%)</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por otro motivo en 2023 (Tasa respuesta: 17,76%)</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>58,11%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
   </si>
   <si>
     <t>0,64%</t>
   </si>
   <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
   </si>
   <si>
     <t>99,36%</t>
   </si>
   <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por otro motivo en 2023 (Tasa respuesta: 17,76%)</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>59,18%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>74,56%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
   </si>
   <si>
     <t>6,35%</t>
   </si>
   <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>76,41%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>72,89%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
   </si>
   <si>
     <t>93,65%</t>
   </si>
   <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>74,53%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>71,07%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
     <t>5,69%</t>
   </si>
   <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
   </si>
   <si>
     <t>5,79%</t>
   </si>
   <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
+    <t>10,42%</t>
   </si>
   <si>
     <t>5,73%</t>
   </si>
   <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
   </si>
   <si>
     <t>94,31%</t>
   </si>
   <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
   </si>
   <si>
     <t>94,21%</t>
   </si>
   <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
+    <t>89,58%</t>
   </si>
   <si>
     <t>94,27%</t>
   </si>
   <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
   </si>
 </sst>
 </file>
@@ -1242,7 +1188,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8F5F5D6-453A-40C6-957D-BE93E4195339}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56DD5454-B0C4-4DCB-9129-2D83DDBA9881}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1840,13 +1786,13 @@
         <v>4674</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="M13" s="7">
         <v>12</v>
@@ -1855,13 +1801,13 @@
         <v>7989</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1876,13 +1822,13 @@
         <v>135959</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="H14" s="7">
         <v>217</v>
@@ -1891,13 +1837,13 @@
         <v>148910</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="M14" s="7">
         <v>420</v>
@@ -1906,13 +1852,13 @@
         <v>284868</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1980,13 +1926,13 @@
         <v>9927</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="H16" s="7">
         <v>16</v>
@@ -1995,13 +1941,13 @@
         <v>10752</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M16" s="7">
         <v>31</v>
@@ -2010,13 +1956,13 @@
         <v>20679</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2031,13 +1977,13 @@
         <v>612821</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H17" s="7">
         <v>874</v>
@@ -2046,13 +1992,13 @@
         <v>585844</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M17" s="7">
         <v>1796</v>
@@ -2061,13 +2007,13 @@
         <v>1198665</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2123,7 +2069,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2143,7 +2089,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{156CB218-36DC-424A-AE37-0A4D6D23937A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05BC2189-74E2-4D00-86F5-634DA4ACAB27}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2160,7 +2106,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2416,13 +2362,13 @@
         <v>4098</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -2431,13 +2377,13 @@
         <v>1405</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
@@ -2446,13 +2392,13 @@
         <v>5502</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2467,13 +2413,13 @@
         <v>70778</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H8" s="7">
         <v>116</v>
@@ -2482,10 +2428,10 @@
         <v>80314</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>16</v>
@@ -2497,13 +2443,13 @@
         <v>151093</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2571,13 +2517,13 @@
         <v>7227</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -2586,13 +2532,13 @@
         <v>5122</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="M10" s="7">
         <v>18</v>
@@ -2601,13 +2547,13 @@
         <v>12349</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>54</v>
+        <v>107</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2622,13 +2568,13 @@
         <v>446166</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="H11" s="7">
         <v>591</v>
@@ -2637,13 +2583,13 @@
         <v>408200</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="M11" s="7">
         <v>1228</v>
@@ -2652,7 +2598,7 @@
         <v>854366</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>115</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>116</v>
@@ -2729,10 +2675,10 @@
         <v>118</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>119</v>
+        <v>54</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -2741,13 +2687,13 @@
         <v>1377</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -2756,13 +2702,13 @@
         <v>5492</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2777,13 +2723,13 @@
         <v>155393</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="H14" s="7">
         <v>217</v>
@@ -2792,10 +2738,10 @@
         <v>154154</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>16</v>
@@ -2807,13 +2753,13 @@
         <v>309547</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2881,13 +2827,13 @@
         <v>15440</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="H16" s="7">
         <v>12</v>
@@ -2896,13 +2842,13 @@
         <v>7903</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M16" s="7">
         <v>33</v>
@@ -2911,13 +2857,13 @@
         <v>23343</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>137</v>
+        <v>73</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>138</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2932,13 +2878,13 @@
         <v>672978</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>64</v>
+        <v>138</v>
       </c>
       <c r="H17" s="7">
         <v>924</v>
@@ -2947,13 +2893,13 @@
         <v>642670</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="M17" s="7">
         <v>1881</v>
@@ -2962,13 +2908,13 @@
         <v>1315647</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>144</v>
+        <v>47</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>145</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3024,7 +2970,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -3044,7 +2990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A0C5989-4201-4F2A-94EC-5D130BF623DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B3E7132-3BCC-4F01-925B-6D436EF2BD5D}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3061,7 +3007,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3305,13 +3251,13 @@
         <v>562</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>38</v>
+        <v>143</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -3320,13 +3266,13 @@
         <v>617</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -3335,13 +3281,13 @@
         <v>1180</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3356,10 +3302,10 @@
         <v>61503</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>48</v>
+        <v>149</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>16</v>
@@ -3371,10 +3317,10 @@
         <v>53574</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>16</v>
@@ -3386,10 +3332,10 @@
         <v>115076</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>16</v>
@@ -3460,13 +3406,13 @@
         <v>5851</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H10" s="7">
         <v>11</v>
@@ -3475,13 +3421,13 @@
         <v>6896</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="M10" s="7">
         <v>19</v>
@@ -3490,13 +3436,13 @@
         <v>12747</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>120</v>
+        <v>161</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3511,13 +3457,13 @@
         <v>417797</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="H11" s="7">
         <v>625</v>
@@ -3526,13 +3472,13 @@
         <v>413656</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="M11" s="7">
         <v>1221</v>
@@ -3541,13 +3487,13 @@
         <v>831453</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>172</v>
+        <v>136</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>127</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3615,13 +3561,13 @@
         <v>5370</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>163</v>
+        <v>53</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -3630,13 +3576,13 @@
         <v>5361</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>176</v>
+        <v>66</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="M13" s="7">
         <v>16</v>
@@ -3645,13 +3591,13 @@
         <v>10732</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>178</v>
+        <v>123</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3666,13 +3612,13 @@
         <v>162330</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>171</v>
+        <v>62</v>
       </c>
       <c r="H14" s="7">
         <v>217</v>
@@ -3681,13 +3627,13 @@
         <v>145426</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>185</v>
+        <v>75</v>
       </c>
       <c r="M14" s="7">
         <v>451</v>
@@ -3696,13 +3642,13 @@
         <v>307755</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>186</v>
+        <v>128</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3770,13 +3716,13 @@
         <v>11784</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="H16" s="7">
         <v>20</v>
@@ -3785,13 +3731,13 @@
         <v>12875</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>191</v>
+        <v>24</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="M16" s="7">
         <v>37</v>
@@ -3800,13 +3746,13 @@
         <v>24658</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>195</v>
+        <v>107</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3821,13 +3767,13 @@
         <v>641630</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>197</v>
+        <v>110</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="H17" s="7">
         <v>922</v>
@@ -3836,13 +3782,13 @@
         <v>612655</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>199</v>
+        <v>29</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="M17" s="7">
         <v>1839</v>
@@ -3851,13 +3797,13 @@
         <v>1254286</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>204</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3913,7 +3859,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -3933,7 +3879,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDA19B18-62E6-4B40-8188-677E969D57D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33A157C1-2A3F-4870-BCE4-0C68F53A81BA}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3950,7 +3896,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4194,13 +4140,13 @@
         <v>824</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4215,7 +4161,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -4224,13 +4170,13 @@
         <v>824</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4245,10 +4191,10 @@
         <v>8032</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>16</v>
@@ -4263,7 +4209,7 @@
         <v>16</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>18</v>
@@ -4275,10 +4221,10 @@
         <v>14606</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>16</v>
@@ -4349,13 +4295,13 @@
         <v>2812</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -4364,13 +4310,13 @@
         <v>2042</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>158</v>
+        <v>203</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
@@ -4379,13 +4325,13 @@
         <v>4853</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>157</v>
+        <v>53</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>221</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4400,13 +4346,13 @@
         <v>85170</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="H11" s="7">
         <v>95</v>
@@ -4415,13 +4361,13 @@
         <v>63967</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>167</v>
+        <v>210</v>
       </c>
       <c r="M11" s="7">
         <v>225</v>
@@ -4430,13 +4376,13 @@
         <v>149138</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>227</v>
+        <v>152</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>165</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4504,13 +4450,13 @@
         <v>3552</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="H13" s="7">
         <v>6</v>
@@ -4519,13 +4465,13 @@
         <v>3743</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="M13" s="7">
         <v>11</v>
@@ -4534,13 +4480,13 @@
         <v>7296</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4555,13 +4501,13 @@
         <v>26036</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="H14" s="7">
         <v>38</v>
@@ -4570,13 +4516,13 @@
         <v>23597</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="M14" s="7">
         <v>73</v>
@@ -4585,13 +4531,13 @@
         <v>49632</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4659,13 +4605,13 @@
         <v>7188</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -4674,13 +4620,13 @@
         <v>5785</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>250</v>
+        <v>68</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="M16" s="7">
         <v>20</v>
@@ -4689,13 +4635,13 @@
         <v>12973</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4710,13 +4656,13 @@
         <v>119237</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="H17" s="7">
         <v>144</v>
@@ -4725,13 +4671,13 @@
         <v>94138</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>260</v>
+        <v>76</v>
       </c>
       <c r="M17" s="7">
         <v>321</v>
@@ -4740,13 +4686,13 @@
         <v>213375</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4802,7 +4748,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP18A06-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP18A06-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E1361C4-4B88-4484-B97A-7FEF453F8413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FEC6595F-D315-4289-93B7-3F7130EEA923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D587323E-8B22-428F-921A-1A53BF77E20B}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{E1617BE3-C04C-4601-B05F-E9C72F664846}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="264">
   <si>
     <t>Menores según su última visita al médico fue por otro motivo en 2007 (Tasa respuesta: 86,83%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,715 +68,769 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Primarios</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
+    <t>0,85%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
+    <t>4,83%</t>
+  </si>
+  <si>
     <t>0%</t>
   </si>
   <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>—%</t>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>22,85%</t>
+    <t>98,29%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por otro motivo en 2012 (Tasa respuesta: 91,19%)</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por otro motivo en 2016 (Tasa respuesta: 88,24%)</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
   </si>
   <si>
     <t>2,06%</t>
   </si>
   <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
   </si>
   <si>
     <t>97,94%</t>
   </si>
   <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
   </si>
   <si>
     <t>98,55%</t>
   </si>
   <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por otro motivo en 2012 (Tasa respuesta: 91,19%)</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por otro motivo en 2016 (Tasa respuesta: 88,24%)</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
+    <t>Menores según su última visita al médico fue por otro motivo en 2023 (Tasa respuesta: 17,76%)</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
   </si>
   <si>
     <t>5,4%</t>
   </si>
   <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>54,02%</t>
   </si>
   <si>
     <t>94,6%</t>
   </si>
   <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por otro motivo en 2023 (Tasa respuesta: 17,76%)</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>41,89%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>58,11%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
+    <t>74,41%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
   </si>
   <si>
     <t>3,15%</t>
   </si>
   <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
   </si>
   <si>
     <t>96,85%</t>
   </si>
   <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>76,41%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>72,89%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>74,59%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
   </si>
 </sst>
 </file>
@@ -1188,8 +1242,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56DD5454-B0C4-4DCB-9129-2D83DDBA9881}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AABB8D95-01F0-41AB-9331-BBE7E082D86F}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1306,10 +1360,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>598</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1323,79 +1377,83 @@
       <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>598</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>104</v>
       </c>
       <c r="D5" s="7">
-        <v>726</v>
+        <v>70089</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>111</v>
+      </c>
+      <c r="I5" s="7">
+        <v>74056</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>215</v>
       </c>
       <c r="N5" s="7">
-        <v>726</v>
+        <v>144145</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1404,151 +1462,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="D6" s="7">
-        <v>726</v>
+        <v>70687</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>111</v>
+      </c>
+      <c r="I6" s="7">
+        <v>74056</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>216</v>
       </c>
       <c r="N6" s="7">
-        <v>726</v>
+        <v>144743</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>5481</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I7" s="7">
-        <v>598</v>
+        <v>6612</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="N7" s="7">
-        <v>598</v>
+        <v>12093</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>111</v>
+        <v>553</v>
       </c>
       <c r="D8" s="7">
-        <v>74056</v>
+        <v>366845</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="H8" s="7">
-        <v>104</v>
+        <v>607</v>
       </c>
       <c r="I8" s="7">
-        <v>70089</v>
+        <v>402080</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="M8" s="7">
-        <v>215</v>
+        <v>1160</v>
       </c>
       <c r="N8" s="7">
-        <v>144145</v>
+        <v>768925</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1557,153 +1617,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>111</v>
+        <v>561</v>
       </c>
       <c r="D9" s="7">
-        <v>74056</v>
+        <v>372326</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H9" s="7">
-        <v>105</v>
+        <v>617</v>
       </c>
       <c r="I9" s="7">
-        <v>70687</v>
+        <v>408692</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
-        <v>216</v>
+        <v>1178</v>
       </c>
       <c r="N9" s="7">
-        <v>144743</v>
+        <v>781018</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D10" s="7">
-        <v>6612</v>
+        <v>4674</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="H10" s="7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I10" s="7">
-        <v>5481</v>
+        <v>3315</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="M10" s="7">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N10" s="7">
-        <v>12093</v>
+        <v>7989</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>607</v>
+        <v>217</v>
       </c>
       <c r="D11" s="7">
-        <v>402080</v>
+        <v>148910</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="H11" s="7">
-        <v>553</v>
+        <v>203</v>
       </c>
       <c r="I11" s="7">
-        <v>366845</v>
+        <v>135959</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="M11" s="7">
-        <v>1160</v>
+        <v>420</v>
       </c>
       <c r="N11" s="7">
-        <v>768925</v>
+        <v>284868</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1712,153 +1772,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>617</v>
+        <v>224</v>
       </c>
       <c r="D12" s="7">
-        <v>408692</v>
+        <v>153584</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H12" s="7">
-        <v>561</v>
+        <v>208</v>
       </c>
       <c r="I12" s="7">
-        <v>372326</v>
+        <v>139274</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
-        <v>1178</v>
+        <v>432</v>
       </c>
       <c r="N12" s="7">
-        <v>781018</v>
+        <v>292857</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D13" s="7">
-        <v>3315</v>
+        <v>10752</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="H13" s="7">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="I13" s="7">
-        <v>4674</v>
+        <v>9927</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="M13" s="7">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="N13" s="7">
-        <v>7989</v>
+        <v>20679</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>203</v>
+        <v>874</v>
       </c>
       <c r="D14" s="7">
-        <v>135959</v>
+        <v>585844</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="H14" s="7">
-        <v>217</v>
+        <v>921</v>
       </c>
       <c r="I14" s="7">
-        <v>148910</v>
+        <v>612094</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="M14" s="7">
-        <v>420</v>
+        <v>1795</v>
       </c>
       <c r="N14" s="7">
-        <v>284868</v>
+        <v>1197939</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1867,216 +1927,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>208</v>
+        <v>890</v>
       </c>
       <c r="D15" s="7">
-        <v>139274</v>
+        <v>596596</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H15" s="7">
-        <v>224</v>
+        <v>936</v>
       </c>
       <c r="I15" s="7">
-        <v>153584</v>
+        <v>622021</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M15" s="7">
-        <v>432</v>
+        <v>1826</v>
       </c>
       <c r="N15" s="7">
-        <v>292857</v>
+        <v>1218618</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>15</v>
-      </c>
-      <c r="D16" s="7">
-        <v>9927</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="H16" s="7">
-        <v>16</v>
-      </c>
-      <c r="I16" s="7">
-        <v>10752</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="M16" s="7">
-        <v>31</v>
-      </c>
-      <c r="N16" s="7">
-        <v>20679</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>922</v>
-      </c>
-      <c r="D17" s="7">
-        <v>612821</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H17" s="7">
-        <v>874</v>
-      </c>
-      <c r="I17" s="7">
-        <v>585844</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1796</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1198665</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="P17" s="7" t="s">
+      <c r="A16" t="s">
         <v>82</v>
       </c>
-      <c r="Q17" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>937</v>
-      </c>
-      <c r="D18" s="7">
-        <v>622748</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>890</v>
-      </c>
-      <c r="I18" s="7">
-        <v>596596</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1827</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1219344</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>84</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2089,8 +1993,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05BC2189-74E2-4D00-86F5-634DA4ACAB27}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E0244C0-5C12-4C67-95DD-2CCB491E4D78}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2106,7 +2010,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2207,96 +2111,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>1405</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="I4" s="7">
+        <v>4098</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>5502</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>116</v>
       </c>
       <c r="D5" s="7">
-        <v>641</v>
+        <v>80314</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>99</v>
+      </c>
+      <c r="I5" s="7">
+        <v>70778</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>215</v>
       </c>
       <c r="N5" s="7">
-        <v>641</v>
+        <v>151093</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2305,151 +2213,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>118</v>
       </c>
       <c r="D6" s="7">
-        <v>641</v>
+        <v>81719</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>105</v>
+      </c>
+      <c r="I6" s="7">
+        <v>74876</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>223</v>
       </c>
       <c r="N6" s="7">
-        <v>641</v>
+        <v>156595</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D7" s="7">
-        <v>4098</v>
+        <v>5122</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="H7" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I7" s="7">
-        <v>1405</v>
+        <v>7227</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="M7" s="7">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="N7" s="7">
-        <v>5502</v>
+        <v>12349</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>99</v>
+        <v>591</v>
       </c>
       <c r="D8" s="7">
-        <v>70778</v>
+        <v>408200</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="H8" s="7">
-        <v>116</v>
+        <v>637</v>
       </c>
       <c r="I8" s="7">
-        <v>80314</v>
+        <v>446166</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="M8" s="7">
-        <v>215</v>
+        <v>1228</v>
       </c>
       <c r="N8" s="7">
-        <v>151093</v>
+        <v>854366</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2458,153 +2368,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>105</v>
+        <v>599</v>
       </c>
       <c r="D9" s="7">
-        <v>74876</v>
+        <v>413322</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H9" s="7">
-        <v>118</v>
+        <v>647</v>
       </c>
       <c r="I9" s="7">
-        <v>81719</v>
+        <v>453393</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
-        <v>223</v>
+        <v>1246</v>
       </c>
       <c r="N9" s="7">
-        <v>156595</v>
+        <v>866715</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>7227</v>
+        <v>1377</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>66</v>
+        <v>116</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="H10" s="7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I10" s="7">
-        <v>5122</v>
+        <v>4115</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="M10" s="7">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="N10" s="7">
-        <v>12349</v>
+        <v>5492</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>637</v>
+        <v>217</v>
       </c>
       <c r="D11" s="7">
-        <v>446166</v>
+        <v>154154</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>111</v>
+        <v>21</v>
       </c>
       <c r="H11" s="7">
-        <v>591</v>
+        <v>220</v>
       </c>
       <c r="I11" s="7">
-        <v>408200</v>
+        <v>155393</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="M11" s="7">
-        <v>1228</v>
+        <v>437</v>
       </c>
       <c r="N11" s="7">
-        <v>854366</v>
+        <v>309547</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2613,153 +2523,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>647</v>
+        <v>219</v>
       </c>
       <c r="D12" s="7">
-        <v>453393</v>
+        <v>155531</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H12" s="7">
-        <v>599</v>
+        <v>225</v>
       </c>
       <c r="I12" s="7">
-        <v>413322</v>
+        <v>159508</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
-        <v>1246</v>
+        <v>444</v>
       </c>
       <c r="N12" s="7">
-        <v>866715</v>
+        <v>315039</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D13" s="7">
-        <v>4115</v>
+        <v>7903</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>54</v>
+        <v>134</v>
       </c>
       <c r="H13" s="7">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="I13" s="7">
-        <v>1377</v>
+        <v>15440</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="M13" s="7">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="N13" s="7">
-        <v>5492</v>
+        <v>23343</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>121</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>220</v>
+        <v>924</v>
       </c>
       <c r="D14" s="7">
-        <v>155393</v>
+        <v>642670</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>61</v>
+        <v>139</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="H14" s="7">
-        <v>217</v>
+        <v>956</v>
       </c>
       <c r="I14" s="7">
-        <v>154154</v>
+        <v>672336</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="M14" s="7">
-        <v>437</v>
+        <v>1880</v>
       </c>
       <c r="N14" s="7">
-        <v>309547</v>
+        <v>1315006</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>129</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2768,216 +2678,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>225</v>
+        <v>936</v>
       </c>
       <c r="D15" s="7">
-        <v>159508</v>
+        <v>650573</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H15" s="7">
-        <v>219</v>
+        <v>977</v>
       </c>
       <c r="I15" s="7">
-        <v>155531</v>
+        <v>687776</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M15" s="7">
-        <v>444</v>
+        <v>1913</v>
       </c>
       <c r="N15" s="7">
-        <v>315039</v>
+        <v>1338349</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>21</v>
-      </c>
-      <c r="D16" s="7">
-        <v>15440</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="H16" s="7">
-        <v>12</v>
-      </c>
-      <c r="I16" s="7">
-        <v>7903</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="M16" s="7">
-        <v>33</v>
-      </c>
-      <c r="N16" s="7">
-        <v>23343</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>957</v>
-      </c>
-      <c r="D17" s="7">
-        <v>672978</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="H17" s="7">
-        <v>924</v>
-      </c>
-      <c r="I17" s="7">
-        <v>642670</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1881</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1315647</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>978</v>
-      </c>
-      <c r="D18" s="7">
-        <v>688418</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>936</v>
-      </c>
-      <c r="I18" s="7">
-        <v>650573</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1914</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1338990</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>84</v>
+      <c r="A16" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2990,8 +2744,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B3E7132-3BCC-4F01-925B-6D436EF2BD5D}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21A88F4B-D95A-4AAE-BEA7-8C6241F145A8}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3007,7 +2761,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3108,88 +2862,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D4" s="7">
+        <v>617</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>145</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>146</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>562</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>147</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>148</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="N4" s="7">
+        <v>1180</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>14</v>
+        <v>149</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>80</v>
+      </c>
+      <c r="D5" s="7">
+        <v>53574</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>152</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>87</v>
+      </c>
+      <c r="I5" s="7">
+        <v>61503</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>153</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>167</v>
+      </c>
+      <c r="N5" s="7">
+        <v>115076</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>14</v>
+        <v>155</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>14</v>
+        <v>156</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3198,147 +2964,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>81</v>
+      </c>
+      <c r="D6" s="7">
+        <v>54191</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>88</v>
+      </c>
+      <c r="I6" s="7">
+        <v>62065</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>169</v>
+      </c>
+      <c r="N6" s="7">
+        <v>116256</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D7" s="7">
-        <v>562</v>
+        <v>6896</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I7" s="7">
-        <v>617</v>
+        <v>5851</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>160</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="M7" s="7">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="N7" s="7">
-        <v>1180</v>
+        <v>12747</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>163</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>87</v>
+        <v>625</v>
       </c>
       <c r="D8" s="7">
-        <v>61503</v>
+        <v>413656</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="H8" s="7">
-        <v>80</v>
+        <v>596</v>
       </c>
       <c r="I8" s="7">
-        <v>53574</v>
+        <v>417797</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>16</v>
+        <v>169</v>
       </c>
       <c r="M8" s="7">
-        <v>167</v>
+        <v>1221</v>
       </c>
       <c r="N8" s="7">
-        <v>115076</v>
+        <v>831453</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>16</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3347,54 +3119,54 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>88</v>
+        <v>636</v>
       </c>
       <c r="D9" s="7">
-        <v>62065</v>
+        <v>420552</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H9" s="7">
-        <v>81</v>
+        <v>604</v>
       </c>
       <c r="I9" s="7">
-        <v>54191</v>
+        <v>423648</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
-        <v>169</v>
+        <v>1240</v>
       </c>
       <c r="N9" s="7">
-        <v>116256</v>
+        <v>844200</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3403,97 +3175,97 @@
         <v>8</v>
       </c>
       <c r="D10" s="7">
-        <v>5851</v>
+        <v>5361</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="H10" s="7">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I10" s="7">
-        <v>6896</v>
+        <v>5370</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="M10" s="7">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N10" s="7">
-        <v>12747</v>
+        <v>10732</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>130</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>596</v>
+        <v>217</v>
       </c>
       <c r="D11" s="7">
-        <v>417797</v>
+        <v>145426</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>141</v>
+        <v>184</v>
       </c>
       <c r="H11" s="7">
-        <v>625</v>
+        <v>234</v>
       </c>
       <c r="I11" s="7">
-        <v>413656</v>
+        <v>162330</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="M11" s="7">
-        <v>1221</v>
+        <v>451</v>
       </c>
       <c r="N11" s="7">
-        <v>831453</v>
+        <v>307755</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>136</v>
+        <v>189</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3502,153 +3274,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>604</v>
+        <v>225</v>
       </c>
       <c r="D12" s="7">
-        <v>423648</v>
+        <v>150787</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H12" s="7">
-        <v>636</v>
+        <v>242</v>
       </c>
       <c r="I12" s="7">
-        <v>420552</v>
+        <v>167700</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
-        <v>1240</v>
+        <v>467</v>
       </c>
       <c r="N12" s="7">
-        <v>844200</v>
+        <v>318487</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D13" s="7">
-        <v>5370</v>
+        <v>12875</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="H13" s="7">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="I13" s="7">
-        <v>5361</v>
+        <v>11784</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>148</v>
+        <v>64</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>66</v>
+        <v>193</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="M13" s="7">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="N13" s="7">
-        <v>10732</v>
+        <v>24658</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>123</v>
+        <v>195</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>234</v>
+        <v>922</v>
       </c>
       <c r="D14" s="7">
-        <v>162330</v>
+        <v>612655</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="H14" s="7">
-        <v>217</v>
+        <v>917</v>
       </c>
       <c r="I14" s="7">
-        <v>145426</v>
+        <v>641630</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>154</v>
+        <v>73</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>75</v>
+        <v>201</v>
       </c>
       <c r="M14" s="7">
-        <v>451</v>
+        <v>1839</v>
       </c>
       <c r="N14" s="7">
-        <v>307755</v>
+        <v>1254286</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>128</v>
+        <v>202</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>177</v>
+        <v>203</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>178</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3657,216 +3429,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>242</v>
+        <v>942</v>
       </c>
       <c r="D15" s="7">
-        <v>167700</v>
+        <v>625530</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H15" s="7">
-        <v>225</v>
+        <v>934</v>
       </c>
       <c r="I15" s="7">
-        <v>150787</v>
+        <v>653414</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M15" s="7">
-        <v>467</v>
+        <v>1876</v>
       </c>
       <c r="N15" s="7">
-        <v>318487</v>
+        <v>1278944</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>17</v>
-      </c>
-      <c r="D16" s="7">
-        <v>11784</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H16" s="7">
-        <v>20</v>
-      </c>
-      <c r="I16" s="7">
-        <v>12875</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="M16" s="7">
-        <v>37</v>
-      </c>
-      <c r="N16" s="7">
-        <v>24658</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>917</v>
-      </c>
-      <c r="D17" s="7">
-        <v>641630</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="H17" s="7">
-        <v>922</v>
-      </c>
-      <c r="I17" s="7">
-        <v>612655</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1839</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1254286</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>934</v>
-      </c>
-      <c r="D18" s="7">
-        <v>653414</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>942</v>
-      </c>
-      <c r="I18" s="7">
-        <v>625530</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1876</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1278944</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>84</v>
+      <c r="A16" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3879,8 +3495,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33A157C1-2A3F-4870-BCE4-0C68F53A81BA}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23EF7BB2-1F63-41A6-9AA8-2FCDD0180FE7}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3896,7 +3512,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3999,86 +3615,98 @@
       <c r="C4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>206</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>863</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>207</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>208</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="N4" s="7">
+        <v>863</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>14</v>
+        <v>209</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="D5" s="7">
+        <v>6545</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>211</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="I5" s="7">
+        <v>8571</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>212</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>213</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>23</v>
+      </c>
+      <c r="N5" s="7">
+        <v>15116</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>14</v>
+        <v>214</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>14</v>
+        <v>215</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4087,147 +3715,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="D6" s="7">
+        <v>6545</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="I6" s="7">
+        <v>9434</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>24</v>
+      </c>
+      <c r="N6" s="7">
+        <v>15979</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>824</v>
+        <v>2075</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>190</v>
+        <v>216</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="H7" s="7">
+        <v>5</v>
+      </c>
+      <c r="I7" s="7">
+        <v>2879</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N7" s="7">
-        <v>824</v>
+        <v>4955</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>221</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="D8" s="7">
-        <v>8032</v>
+        <v>64163</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>195</v>
+        <v>223</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>196</v>
+        <v>224</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="H8" s="7">
-        <v>11</v>
+        <v>130</v>
       </c>
       <c r="I8" s="7">
-        <v>6574</v>
+        <v>88370</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>16</v>
+        <v>225</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>197</v>
+        <v>226</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>23</v>
+        <v>225</v>
       </c>
       <c r="N8" s="7">
-        <v>14606</v>
+        <v>152532</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>198</v>
+        <v>227</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>199</v>
+        <v>228</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>16</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4236,153 +3870,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="D9" s="7">
-        <v>8856</v>
+        <v>66238</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H9" s="7">
-        <v>11</v>
+        <v>135</v>
       </c>
       <c r="I9" s="7">
-        <v>6574</v>
+        <v>91249</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
-        <v>24</v>
+        <v>233</v>
       </c>
       <c r="N9" s="7">
-        <v>15430</v>
+        <v>157487</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>6</v>
+      </c>
+      <c r="D10" s="7">
+        <v>3640</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="H10" s="7">
         <v>5</v>
       </c>
-      <c r="D10" s="7">
-        <v>2812</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="H10" s="7">
-        <v>3</v>
-      </c>
       <c r="I10" s="7">
-        <v>2042</v>
+        <v>3619</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="M10" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="N10" s="7">
-        <v>4853</v>
+        <v>7260</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>53</v>
+        <v>237</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>146</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>130</v>
+        <v>38</v>
       </c>
       <c r="D11" s="7">
-        <v>85170</v>
+        <v>23891</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>174</v>
+        <v>239</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>206</v>
+        <v>240</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>207</v>
+        <v>241</v>
       </c>
       <c r="H11" s="7">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="I11" s="7">
-        <v>63967</v>
+        <v>27290</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>208</v>
+        <v>242</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>209</v>
+        <v>243</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>210</v>
+        <v>244</v>
       </c>
       <c r="M11" s="7">
-        <v>225</v>
+        <v>73</v>
       </c>
       <c r="N11" s="7">
-        <v>149138</v>
+        <v>51181</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>211</v>
+        <v>245</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>152</v>
+        <v>246</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>62</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4391,153 +4025,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>135</v>
+        <v>44</v>
       </c>
       <c r="D12" s="7">
-        <v>87982</v>
+        <v>27531</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H12" s="7">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="I12" s="7">
-        <v>66009</v>
+        <v>30909</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
-        <v>233</v>
+        <v>84</v>
       </c>
       <c r="N12" s="7">
-        <v>153991</v>
+        <v>58441</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D13" s="7">
-        <v>3552</v>
+        <v>5715</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>212</v>
+        <v>248</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>213</v>
+        <v>249</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>214</v>
+        <v>250</v>
       </c>
       <c r="H13" s="7">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="I13" s="7">
-        <v>3743</v>
+        <v>7361</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>215</v>
+        <v>251</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>217</v>
+        <v>252</v>
       </c>
       <c r="M13" s="7">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="N13" s="7">
-        <v>7296</v>
+        <v>13077</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>218</v>
+        <v>253</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>219</v>
+        <v>254</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>220</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>35</v>
+        <v>144</v>
       </c>
       <c r="D14" s="7">
-        <v>26036</v>
+        <v>94599</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>221</v>
+        <v>256</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>222</v>
+        <v>257</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>223</v>
+        <v>258</v>
       </c>
       <c r="H14" s="7">
-        <v>38</v>
+        <v>177</v>
       </c>
       <c r="I14" s="7">
-        <v>23597</v>
+        <v>124231</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>224</v>
+        <v>259</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>225</v>
+        <v>260</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
       <c r="M14" s="7">
-        <v>73</v>
+        <v>321</v>
       </c>
       <c r="N14" s="7">
-        <v>49632</v>
+        <v>218829</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>227</v>
+        <v>261</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>228</v>
+        <v>262</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>229</v>
+        <v>263</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4546,216 +4180,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>40</v>
+        <v>153</v>
       </c>
       <c r="D15" s="7">
-        <v>29588</v>
+        <v>100314</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H15" s="7">
-        <v>44</v>
+        <v>188</v>
       </c>
       <c r="I15" s="7">
-        <v>27340</v>
+        <v>131592</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M15" s="7">
-        <v>84</v>
+        <v>341</v>
       </c>
       <c r="N15" s="7">
-        <v>56928</v>
+        <v>231906</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>11</v>
-      </c>
-      <c r="D16" s="7">
-        <v>7188</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="H16" s="7">
-        <v>9</v>
-      </c>
-      <c r="I16" s="7">
-        <v>5785</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="M16" s="7">
-        <v>20</v>
-      </c>
-      <c r="N16" s="7">
-        <v>12973</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>177</v>
-      </c>
-      <c r="D17" s="7">
-        <v>119237</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="H17" s="7">
-        <v>144</v>
-      </c>
-      <c r="I17" s="7">
-        <v>94138</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="M17" s="7">
-        <v>321</v>
-      </c>
-      <c r="N17" s="7">
-        <v>213375</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>188</v>
-      </c>
-      <c r="D18" s="7">
-        <v>126425</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>153</v>
-      </c>
-      <c r="I18" s="7">
-        <v>99923</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>341</v>
-      </c>
-      <c r="N18" s="7">
-        <v>226348</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>84</v>
+      <c r="A16" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
